--- a/CashFlow/TDY_cashflow.xlsx
+++ b/CashFlow/TDY_cashflow.xlsx
@@ -75,8 +75,8 @@
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="27.500000000000004"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="14.3"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="14.3"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="14.3"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="14.3"/>
@@ -376,10 +376,8 @@
           <t>Depreciation &amp; Amortization</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B3" s="0" t="n">
+        <v>116200000.0</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>116200000.0</v>
@@ -505,10 +503,8 @@
           <t>Non Cash Items (Other)</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B4" s="0" t="n">
+        <v>15900000.0</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1200000.0</v>
@@ -520,7 +516,7 @@
         <v>8200000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-24300000.0</v>
+        <v>-15200000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>-23100000.0</v>
@@ -634,10 +630,8 @@
           <t>Accounts Receivable Change</t>
         </is>
       </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B5" s="0" t="n">
+        <v>45200000.0</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>47800000.0</v>
@@ -764,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1432000000.0</v>
+        <v>398700000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1505000000.0</v>
+        <v>54300000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1172900000.0</v>
+        <v>42000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>815300000.0</v>
+        <v>16300000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>425600000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>12200000.0</v>
@@ -890,10 +884,8 @@
           <t>Accounts Payable Change</t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B7" s="0" t="n">
+        <v>-21000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>-46300000.0</v>
@@ -1020,19 +1012,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>204700000.0</v>
+        <v>941000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>-46300000.0</v>
+        <v>954000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>-42400000.0</v>
+        <v>734800000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>12100000.0</v>
+        <v>540500000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>31900000.0</v>
+        <v>295900000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>17800000.0</v>
@@ -1289,10 +1281,8 @@
           <t>Change in other assets and liabilities</t>
         </is>
       </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B10" s="0" t="n">
+        <v>-10200000.0</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>-9900000.0</v>
@@ -1418,10 +1408,8 @@
           <t>Other operating activities</t>
         </is>
       </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B11" s="0" t="n">
+        <v>400000.0</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>300000.0</v>
@@ -1547,10 +1535,8 @@
           <t>Operating Cash Flow</t>
         </is>
       </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B12" s="0" t="n">
+        <v>667400000.0</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>618900000.0</v>
@@ -1676,10 +1662,8 @@
           <t>Capital expenditures</t>
         </is>
       </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B13" s="0" t="n">
+        <v>-68800000.0</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>-71400000.0</v>
@@ -2133,10 +2117,8 @@
           <t>Investing cash flow</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B16" s="0" t="n">
+        <v>-67900000.0</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>-99400000.0</v>
@@ -2262,10 +2244,8 @@
           <t>Repayment/Issuance of Debt (Net)</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B17" s="0" t="n">
+        <v>2351000000.0</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>-98100000.0</v>
@@ -2391,10 +2371,8 @@
           <t>Equity Repurchase (Common, Net)</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B18" s="0" t="n">
+        <v>36900000.0</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>36300000.0</v>
@@ -2520,10 +2498,8 @@
           <t>Other financial activities</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B19" s="0" t="n">
+        <v>14800000.0</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>30000000.0</v>
@@ -2651,10 +2627,8 @@
           <t>Financing cash flow</t>
         </is>
       </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B20" s="0" t="n">
+        <v>2382300000.0</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>-61800000.0</v>
@@ -2780,10 +2754,8 @@
           <t>Exchange Rate Adjustment</t>
         </is>
       </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B21" s="0" t="n">
+        <v>21000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>15900000.0</v>
@@ -2933,10 +2905,8 @@
           <t>Change in Cash</t>
         </is>
       </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B22" s="0" t="n">
+        <v>3002800000.0</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>473600000.0</v>
@@ -3062,10 +3032,8 @@
           <t>Beginning Cash</t>
         </is>
       </c>
-      <c r="B23" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B23" s="0" t="n">
+        <v>673100000.0</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>199500000.0</v>
@@ -3191,10 +3159,8 @@
           <t>Ending Cash</t>
         </is>
       </c>
-      <c r="B24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B24" s="0" t="n">
+        <v>3675900000.0</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>673100000.0</v>
@@ -3320,10 +3286,8 @@
           <t>Stock Based Compensation</t>
         </is>
       </c>
-      <c r="B25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B25" s="0" t="n">
+        <v>27400000.0</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>30000000.0</v>
@@ -3576,10 +3540,8 @@
           <t>Assets Liabilities Change (Total)</t>
         </is>
       </c>
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B27" s="0" t="n">
+        <v>130500000.0</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>99300000.0</v>
@@ -3591,7 +3553,7 @@
         <v>29800000.0</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>-20100000.0</v>
+        <v>-29200000.0</v>
       </c>
       <c r="G27" s="0" t="n">
         <v>-4500000.0</v>
@@ -3705,10 +3667,8 @@
           <t>Issuance/Purchase of Shares</t>
         </is>
       </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B28" s="0" t="n">
+        <v>36900000.0</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>36300000.0</v>
@@ -3834,10 +3794,8 @@
           <t>Capital Stock Change</t>
         </is>
       </c>
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B29" s="0" t="n">
+        <v>36900000.0</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>36300000.0</v>
